--- a/cooltrade product sample data.xlsx
+++ b/cooltrade product sample data.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cool-Trade\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17C639C-E7B4-4A12-8073-44E100773B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="189">
   <si>
     <t>PRODUCT_NO</t>
   </si>
@@ -575,25 +584,44 @@
   </si>
   <si>
     <t>설명입니다. 80</t>
+  </si>
+  <si>
+    <t>TRADE_TYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -602,39 +630,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -824,31 +858,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.38"/>
-    <col customWidth="1" min="2" max="2" width="10.88"/>
-    <col customWidth="1" min="3" max="3" width="13.63"/>
-    <col customWidth="1" min="4" max="4" width="15.0"/>
-    <col customWidth="1" min="5" max="5" width="6.13"/>
-    <col customWidth="1" min="6" max="6" width="14.75"/>
-    <col customWidth="1" min="7" max="7" width="5.63"/>
-    <col customWidth="1" min="8" max="8" width="16.5"/>
-    <col customWidth="1" min="9" max="10" width="13.13"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,13 +916,16 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="K1" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -894,7 +934,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -906,18 +946,21 @@
         <v>15</v>
       </c>
       <c r="I2" s="2">
-        <v>45292.0</v>
+        <v>45292</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
@@ -926,7 +969,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="1">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>
@@ -938,18 +981,21 @@
         <v>20</v>
       </c>
       <c r="I3" s="2">
-        <v>45293.0</v>
+        <v>45293</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -958,7 +1004,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="1">
-        <v>1002.0</v>
+        <v>1002</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -970,18 +1016,21 @@
         <v>24</v>
       </c>
       <c r="I4" s="2">
-        <v>45294.0</v>
+        <v>45294</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>25</v>
@@ -990,7 +1039,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="1">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
@@ -1002,18 +1051,21 @@
         <v>28</v>
       </c>
       <c r="I5" s="2">
-        <v>45295.0</v>
+        <v>45295</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
@@ -1022,7 +1074,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="1">
-        <v>1004.0</v>
+        <v>1004</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>31</v>
@@ -1034,18 +1086,21 @@
         <v>32</v>
       </c>
       <c r="I6" s="2">
-        <v>45296.0</v>
+        <v>45296</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1054,7 +1109,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="1">
-        <v>1005.0</v>
+        <v>1005</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>35</v>
@@ -1066,18 +1121,21 @@
         <v>15</v>
       </c>
       <c r="I7" s="2">
-        <v>45297.0</v>
+        <v>45297</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>36</v>
@@ -1086,7 +1144,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="1">
-        <v>1006.0</v>
+        <v>1006</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>38</v>
@@ -1098,18 +1156,21 @@
         <v>20</v>
       </c>
       <c r="I8" s="2">
-        <v>45298.0</v>
+        <v>45298</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="K8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>39</v>
@@ -1118,7 +1179,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="1">
-        <v>1007.0</v>
+        <v>1007</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>41</v>
@@ -1130,18 +1191,21 @@
         <v>24</v>
       </c>
       <c r="I9" s="2">
-        <v>45299.0</v>
+        <v>45299</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -1150,7 +1214,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="1">
-        <v>1008.0</v>
+        <v>1008</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>44</v>
@@ -1162,18 +1226,21 @@
         <v>28</v>
       </c>
       <c r="I10" s="2">
-        <v>45300.0</v>
+        <v>45300</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>45</v>
@@ -1182,7 +1249,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="1">
-        <v>1009.0</v>
+        <v>1009</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>47</v>
@@ -1194,18 +1261,21 @@
         <v>32</v>
       </c>
       <c r="I11" s="2">
-        <v>45301.0</v>
+        <v>45301</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
@@ -1214,7 +1284,7 @@
         <v>48</v>
       </c>
       <c r="E12" s="1">
-        <v>1010.0</v>
+        <v>1010</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>49</v>
@@ -1226,18 +1296,21 @@
         <v>15</v>
       </c>
       <c r="I12" s="2">
-        <v>45302.0</v>
+        <v>45302</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="K12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
@@ -1246,7 +1319,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="1">
-        <v>1011.0</v>
+        <v>1011</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>51</v>
@@ -1258,18 +1331,21 @@
         <v>20</v>
       </c>
       <c r="I13" s="2">
-        <v>45303.0</v>
+        <v>45303</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -1278,7 +1354,7 @@
         <v>52</v>
       </c>
       <c r="E14" s="1">
-        <v>1012.0</v>
+        <v>1012</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>53</v>
@@ -1290,18 +1366,21 @@
         <v>24</v>
       </c>
       <c r="I14" s="2">
-        <v>45304.0</v>
+        <v>45304</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="K14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>25</v>
@@ -1310,7 +1389,7 @@
         <v>54</v>
       </c>
       <c r="E15" s="1">
-        <v>1013.0</v>
+        <v>1013</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>55</v>
@@ -1322,18 +1401,21 @@
         <v>28</v>
       </c>
       <c r="I15" s="2">
-        <v>45305.0</v>
+        <v>45305</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>29</v>
@@ -1342,7 +1424,7 @@
         <v>56</v>
       </c>
       <c r="E16" s="1">
-        <v>1014.0</v>
+        <v>1014</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>57</v>
@@ -1354,18 +1436,21 @@
         <v>32</v>
       </c>
       <c r="I16" s="2">
-        <v>45306.0</v>
+        <v>45306</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
@@ -1374,7 +1459,7 @@
         <v>58</v>
       </c>
       <c r="E17" s="1">
-        <v>1015.0</v>
+        <v>1015</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>59</v>
@@ -1386,18 +1471,21 @@
         <v>15</v>
       </c>
       <c r="I17" s="2">
-        <v>45307.0</v>
+        <v>45307</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="K17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>36</v>
@@ -1406,7 +1494,7 @@
         <v>60</v>
       </c>
       <c r="E18" s="1">
-        <v>1016.0</v>
+        <v>1016</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>61</v>
@@ -1418,18 +1506,21 @@
         <v>20</v>
       </c>
       <c r="I18" s="2">
-        <v>45308.0</v>
+        <v>45308</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="K18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>39</v>
@@ -1438,7 +1529,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="1">
-        <v>1017.0</v>
+        <v>1017</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>63</v>
@@ -1450,18 +1541,21 @@
         <v>24</v>
       </c>
       <c r="I19" s="2">
-        <v>45309.0</v>
+        <v>45309</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>42</v>
@@ -1470,7 +1564,7 @@
         <v>64</v>
       </c>
       <c r="E20" s="1">
-        <v>1018.0</v>
+        <v>1018</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>65</v>
@@ -1482,18 +1576,21 @@
         <v>28</v>
       </c>
       <c r="I20" s="2">
-        <v>45310.0</v>
+        <v>45310</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="K20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>45</v>
@@ -1502,7 +1599,7 @@
         <v>66</v>
       </c>
       <c r="E21" s="1">
-        <v>1019.0</v>
+        <v>1019</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>67</v>
@@ -1514,18 +1611,21 @@
         <v>32</v>
       </c>
       <c r="I21" s="2">
-        <v>45311.0</v>
+        <v>45311</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
@@ -1534,7 +1634,7 @@
         <v>68</v>
       </c>
       <c r="E22" s="1">
-        <v>1020.0</v>
+        <v>1020</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>69</v>
@@ -1546,18 +1646,21 @@
         <v>15</v>
       </c>
       <c r="I22" s="2">
-        <v>45312.0</v>
+        <v>45312</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="K22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>17</v>
@@ -1566,7 +1669,7 @@
         <v>70</v>
       </c>
       <c r="E23" s="1">
-        <v>1021.0</v>
+        <v>1021</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>71</v>
@@ -1578,18 +1681,21 @@
         <v>20</v>
       </c>
       <c r="I23" s="2">
-        <v>45313.0</v>
+        <v>45313</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24">
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>21</v>
@@ -1598,7 +1704,7 @@
         <v>72</v>
       </c>
       <c r="E24" s="1">
-        <v>1022.0</v>
+        <v>1022</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>73</v>
@@ -1610,18 +1716,21 @@
         <v>24</v>
       </c>
       <c r="I24" s="2">
-        <v>45314.0</v>
+        <v>45314</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>25</v>
@@ -1630,7 +1739,7 @@
         <v>74</v>
       </c>
       <c r="E25" s="1">
-        <v>1023.0</v>
+        <v>1023</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>75</v>
@@ -1642,18 +1751,21 @@
         <v>28</v>
       </c>
       <c r="I25" s="2">
-        <v>45315.0</v>
+        <v>45315</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>29</v>
@@ -1662,7 +1774,7 @@
         <v>76</v>
       </c>
       <c r="E26" s="1">
-        <v>1024.0</v>
+        <v>1024</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>77</v>
@@ -1674,18 +1786,21 @@
         <v>32</v>
       </c>
       <c r="I26" s="2">
-        <v>45316.0</v>
+        <v>45316</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>33</v>
@@ -1694,7 +1809,7 @@
         <v>78</v>
       </c>
       <c r="E27" s="1">
-        <v>1025.0</v>
+        <v>1025</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>79</v>
@@ -1706,18 +1821,21 @@
         <v>15</v>
       </c>
       <c r="I27" s="2">
-        <v>45317.0</v>
+        <v>45317</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="K27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>36</v>
@@ -1726,7 +1844,7 @@
         <v>80</v>
       </c>
       <c r="E28" s="1">
-        <v>1026.0</v>
+        <v>1026</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>81</v>
@@ -1738,18 +1856,21 @@
         <v>20</v>
       </c>
       <c r="I28" s="2">
-        <v>45318.0</v>
+        <v>45318</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29">
+      <c r="K28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>39</v>
@@ -1758,7 +1879,7 @@
         <v>82</v>
       </c>
       <c r="E29" s="1">
-        <v>1027.0</v>
+        <v>1027</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>83</v>
@@ -1770,18 +1891,21 @@
         <v>24</v>
       </c>
       <c r="I29" s="2">
-        <v>45319.0</v>
+        <v>45319</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30">
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>42</v>
@@ -1790,7 +1914,7 @@
         <v>84</v>
       </c>
       <c r="E30" s="1">
-        <v>1028.0</v>
+        <v>1028</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>85</v>
@@ -1802,18 +1926,21 @@
         <v>28</v>
       </c>
       <c r="I30" s="2">
-        <v>45320.0</v>
+        <v>45320</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31">
+      <c r="K30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>45</v>
@@ -1822,7 +1949,7 @@
         <v>86</v>
       </c>
       <c r="E31" s="1">
-        <v>1029.0</v>
+        <v>1029</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>87</v>
@@ -1834,18 +1961,21 @@
         <v>32</v>
       </c>
       <c r="I31" s="2">
-        <v>45321.0</v>
+        <v>45321</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32">
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
@@ -1854,7 +1984,7 @@
         <v>88</v>
       </c>
       <c r="E32" s="1">
-        <v>1030.0</v>
+        <v>1030</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>89</v>
@@ -1866,18 +1996,21 @@
         <v>15</v>
       </c>
       <c r="I32" s="2">
-        <v>45322.0</v>
+        <v>45322</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33">
+      <c r="K32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>17</v>
@@ -1886,7 +2019,7 @@
         <v>90</v>
       </c>
       <c r="E33" s="1">
-        <v>1031.0</v>
+        <v>1031</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>91</v>
@@ -1898,18 +2031,21 @@
         <v>20</v>
       </c>
       <c r="I33" s="2">
-        <v>45323.0</v>
+        <v>45323</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34">
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>21</v>
@@ -1918,7 +2054,7 @@
         <v>92</v>
       </c>
       <c r="E34" s="1">
-        <v>1032.0</v>
+        <v>1032</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>93</v>
@@ -1930,18 +2066,21 @@
         <v>24</v>
       </c>
       <c r="I34" s="2">
-        <v>45324.0</v>
+        <v>45324</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35">
+      <c r="K34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>25</v>
@@ -1950,7 +2089,7 @@
         <v>94</v>
       </c>
       <c r="E35" s="1">
-        <v>1033.0</v>
+        <v>1033</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>95</v>
@@ -1962,18 +2101,21 @@
         <v>28</v>
       </c>
       <c r="I35" s="2">
-        <v>45325.0</v>
+        <v>45325</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36">
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>29</v>
@@ -1982,7 +2124,7 @@
         <v>96</v>
       </c>
       <c r="E36" s="1">
-        <v>1034.0</v>
+        <v>1034</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>97</v>
@@ -1994,18 +2136,21 @@
         <v>32</v>
       </c>
       <c r="I36" s="2">
-        <v>45326.0</v>
+        <v>45326</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37">
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>33</v>
@@ -2014,7 +2159,7 @@
         <v>98</v>
       </c>
       <c r="E37" s="1">
-        <v>1035.0</v>
+        <v>1035</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>99</v>
@@ -2026,18 +2171,21 @@
         <v>15</v>
       </c>
       <c r="I37" s="2">
-        <v>45327.0</v>
+        <v>45327</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38">
+      <c r="K37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B38" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>36</v>
@@ -2046,7 +2194,7 @@
         <v>100</v>
       </c>
       <c r="E38" s="1">
-        <v>1036.0</v>
+        <v>1036</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>101</v>
@@ -2058,18 +2206,21 @@
         <v>20</v>
       </c>
       <c r="I38" s="2">
-        <v>45328.0</v>
+        <v>45328</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39">
+      <c r="K38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>39</v>
@@ -2078,7 +2229,7 @@
         <v>102</v>
       </c>
       <c r="E39" s="1">
-        <v>1037.0</v>
+        <v>1037</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>103</v>
@@ -2090,18 +2241,21 @@
         <v>24</v>
       </c>
       <c r="I39" s="2">
-        <v>45329.0</v>
+        <v>45329</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40">
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>42</v>
@@ -2110,7 +2264,7 @@
         <v>104</v>
       </c>
       <c r="E40" s="1">
-        <v>1038.0</v>
+        <v>1038</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>105</v>
@@ -2122,18 +2276,21 @@
         <v>28</v>
       </c>
       <c r="I40" s="2">
-        <v>45330.0</v>
+        <v>45330</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41">
+      <c r="K40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>45</v>
@@ -2142,7 +2299,7 @@
         <v>106</v>
       </c>
       <c r="E41" s="1">
-        <v>1039.0</v>
+        <v>1039</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>107</v>
@@ -2154,18 +2311,21 @@
         <v>32</v>
       </c>
       <c r="I41" s="2">
-        <v>45331.0</v>
+        <v>45331</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42">
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>11</v>
@@ -2174,7 +2334,7 @@
         <v>108</v>
       </c>
       <c r="E42" s="1">
-        <v>1040.0</v>
+        <v>1040</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>109</v>
@@ -2186,18 +2346,21 @@
         <v>15</v>
       </c>
       <c r="I42" s="2">
-        <v>45332.0</v>
+        <v>45332</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43">
+      <c r="K42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>17</v>
@@ -2206,7 +2369,7 @@
         <v>110</v>
       </c>
       <c r="E43" s="1">
-        <v>1041.0</v>
+        <v>1041</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>111</v>
@@ -2218,18 +2381,21 @@
         <v>20</v>
       </c>
       <c r="I43" s="2">
-        <v>45333.0</v>
+        <v>45333</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44">
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B44" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>21</v>
@@ -2238,7 +2404,7 @@
         <v>112</v>
       </c>
       <c r="E44" s="1">
-        <v>1042.0</v>
+        <v>1042</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>113</v>
@@ -2250,18 +2416,21 @@
         <v>24</v>
       </c>
       <c r="I44" s="2">
-        <v>45334.0</v>
+        <v>45334</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45">
+      <c r="K44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B45" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>25</v>
@@ -2270,7 +2439,7 @@
         <v>114</v>
       </c>
       <c r="E45" s="1">
-        <v>1043.0</v>
+        <v>1043</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>115</v>
@@ -2282,18 +2451,21 @@
         <v>28</v>
       </c>
       <c r="I45" s="2">
-        <v>45335.0</v>
+        <v>45335</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46">
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B46" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>29</v>
@@ -2302,7 +2474,7 @@
         <v>116</v>
       </c>
       <c r="E46" s="1">
-        <v>1044.0</v>
+        <v>1044</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>117</v>
@@ -2314,18 +2486,21 @@
         <v>32</v>
       </c>
       <c r="I46" s="2">
-        <v>45336.0</v>
+        <v>45336</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47">
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>33</v>
@@ -2334,7 +2509,7 @@
         <v>118</v>
       </c>
       <c r="E47" s="1">
-        <v>1045.0</v>
+        <v>1045</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>119</v>
@@ -2346,18 +2521,21 @@
         <v>15</v>
       </c>
       <c r="I47" s="2">
-        <v>45337.0</v>
+        <v>45337</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48">
+      <c r="K47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B48" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>36</v>
@@ -2366,7 +2544,7 @@
         <v>120</v>
       </c>
       <c r="E48" s="1">
-        <v>1046.0</v>
+        <v>1046</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>121</v>
@@ -2378,18 +2556,21 @@
         <v>20</v>
       </c>
       <c r="I48" s="2">
-        <v>45338.0</v>
+        <v>45338</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49">
+      <c r="K48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>39</v>
@@ -2398,7 +2579,7 @@
         <v>122</v>
       </c>
       <c r="E49" s="1">
-        <v>1047.0</v>
+        <v>1047</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>123</v>
@@ -2410,18 +2591,21 @@
         <v>24</v>
       </c>
       <c r="I49" s="2">
-        <v>45339.0</v>
+        <v>45339</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50">
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>42</v>
@@ -2430,7 +2614,7 @@
         <v>124</v>
       </c>
       <c r="E50" s="1">
-        <v>1048.0</v>
+        <v>1048</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>125</v>
@@ -2442,18 +2626,21 @@
         <v>28</v>
       </c>
       <c r="I50" s="2">
-        <v>45340.0</v>
+        <v>45340</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51">
+      <c r="K50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B51" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>45</v>
@@ -2462,7 +2649,7 @@
         <v>126</v>
       </c>
       <c r="E51" s="1">
-        <v>1049.0</v>
+        <v>1049</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>127</v>
@@ -2474,18 +2661,21 @@
         <v>32</v>
       </c>
       <c r="I51" s="2">
-        <v>45341.0</v>
+        <v>45341</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52">
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>11</v>
@@ -2494,7 +2684,7 @@
         <v>128</v>
       </c>
       <c r="E52" s="1">
-        <v>1050.0</v>
+        <v>1050</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>129</v>
@@ -2506,18 +2696,21 @@
         <v>15</v>
       </c>
       <c r="I52" s="2">
-        <v>45342.0</v>
+        <v>45342</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53">
+      <c r="K52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B53" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>17</v>
@@ -2526,7 +2719,7 @@
         <v>130</v>
       </c>
       <c r="E53" s="1">
-        <v>1051.0</v>
+        <v>1051</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>131</v>
@@ -2538,18 +2731,21 @@
         <v>20</v>
       </c>
       <c r="I53" s="2">
-        <v>45343.0</v>
+        <v>45343</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54">
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B54" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>21</v>
@@ -2558,7 +2754,7 @@
         <v>132</v>
       </c>
       <c r="E54" s="1">
-        <v>1052.0</v>
+        <v>1052</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>133</v>
@@ -2570,18 +2766,21 @@
         <v>24</v>
       </c>
       <c r="I54" s="2">
-        <v>45344.0</v>
+        <v>45344</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55">
+      <c r="K54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B55" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>25</v>
@@ -2590,7 +2789,7 @@
         <v>134</v>
       </c>
       <c r="E55" s="1">
-        <v>1053.0</v>
+        <v>1053</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>135</v>
@@ -2602,18 +2801,21 @@
         <v>28</v>
       </c>
       <c r="I55" s="2">
-        <v>45345.0</v>
+        <v>45345</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56">
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B56" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>29</v>
@@ -2622,7 +2824,7 @@
         <v>136</v>
       </c>
       <c r="E56" s="1">
-        <v>1054.0</v>
+        <v>1054</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>137</v>
@@ -2634,18 +2836,21 @@
         <v>32</v>
       </c>
       <c r="I56" s="2">
-        <v>45346.0</v>
+        <v>45346</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57">
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>33</v>
@@ -2654,7 +2859,7 @@
         <v>138</v>
       </c>
       <c r="E57" s="1">
-        <v>1055.0</v>
+        <v>1055</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>139</v>
@@ -2666,18 +2871,21 @@
         <v>15</v>
       </c>
       <c r="I57" s="2">
-        <v>45347.0</v>
+        <v>45347</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58">
+      <c r="K57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>36</v>
@@ -2686,7 +2894,7 @@
         <v>140</v>
       </c>
       <c r="E58" s="1">
-        <v>1056.0</v>
+        <v>1056</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>141</v>
@@ -2698,18 +2906,21 @@
         <v>20</v>
       </c>
       <c r="I58" s="2">
-        <v>45348.0</v>
+        <v>45348</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59">
+      <c r="K58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B59" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>39</v>
@@ -2718,7 +2929,7 @@
         <v>142</v>
       </c>
       <c r="E59" s="1">
-        <v>1057.0</v>
+        <v>1057</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>143</v>
@@ -2730,18 +2941,21 @@
         <v>24</v>
       </c>
       <c r="I59" s="2">
-        <v>45349.0</v>
+        <v>45349</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60">
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B60" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>42</v>
@@ -2750,7 +2964,7 @@
         <v>144</v>
       </c>
       <c r="E60" s="1">
-        <v>1058.0</v>
+        <v>1058</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>145</v>
@@ -2762,18 +2976,21 @@
         <v>28</v>
       </c>
       <c r="I60" s="2">
-        <v>45350.0</v>
+        <v>45350</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61">
+      <c r="K60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B61" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>45</v>
@@ -2782,7 +2999,7 @@
         <v>146</v>
       </c>
       <c r="E61" s="1">
-        <v>1059.0</v>
+        <v>1059</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>147</v>
@@ -2794,18 +3011,21 @@
         <v>32</v>
       </c>
       <c r="I61" s="2">
-        <v>45351.0</v>
+        <v>45351</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62">
+      <c r="K61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B62" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>11</v>
@@ -2814,7 +3034,7 @@
         <v>148</v>
       </c>
       <c r="E62" s="1">
-        <v>1060.0</v>
+        <v>1060</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>149</v>
@@ -2826,18 +3046,21 @@
         <v>15</v>
       </c>
       <c r="I62" s="2">
-        <v>45352.0</v>
+        <v>45352</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63">
+      <c r="K62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B63" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>17</v>
@@ -2846,7 +3069,7 @@
         <v>150</v>
       </c>
       <c r="E63" s="1">
-        <v>1061.0</v>
+        <v>1061</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>151</v>
@@ -2858,18 +3081,21 @@
         <v>20</v>
       </c>
       <c r="I63" s="2">
-        <v>45353.0</v>
+        <v>45353</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="64">
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B64" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>21</v>
@@ -2878,7 +3104,7 @@
         <v>152</v>
       </c>
       <c r="E64" s="1">
-        <v>1062.0</v>
+        <v>1062</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>153</v>
@@ -2890,18 +3116,21 @@
         <v>24</v>
       </c>
       <c r="I64" s="2">
-        <v>45354.0</v>
+        <v>45354</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="65">
+      <c r="K64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B65" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>25</v>
@@ -2910,7 +3139,7 @@
         <v>154</v>
       </c>
       <c r="E65" s="1">
-        <v>1063.0</v>
+        <v>1063</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>155</v>
@@ -2922,18 +3151,21 @@
         <v>28</v>
       </c>
       <c r="I65" s="2">
-        <v>45355.0</v>
+        <v>45355</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="66">
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B66" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>29</v>
@@ -2942,7 +3174,7 @@
         <v>156</v>
       </c>
       <c r="E66" s="1">
-        <v>1064.0</v>
+        <v>1064</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>157</v>
@@ -2954,18 +3186,21 @@
         <v>32</v>
       </c>
       <c r="I66" s="2">
-        <v>45356.0</v>
+        <v>45356</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67">
+      <c r="K66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B67" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>33</v>
@@ -2974,7 +3209,7 @@
         <v>158</v>
       </c>
       <c r="E67" s="1">
-        <v>1065.0</v>
+        <v>1065</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>159</v>
@@ -2986,18 +3221,21 @@
         <v>15</v>
       </c>
       <c r="I67" s="2">
-        <v>45357.0</v>
+        <v>45357</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="68">
+      <c r="K67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B68" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>36</v>
@@ -3006,7 +3244,7 @@
         <v>160</v>
       </c>
       <c r="E68" s="1">
-        <v>1066.0</v>
+        <v>1066</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>161</v>
@@ -3018,18 +3256,21 @@
         <v>20</v>
       </c>
       <c r="I68" s="2">
-        <v>45358.0</v>
+        <v>45358</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69">
+      <c r="K68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B69" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>39</v>
@@ -3038,7 +3279,7 @@
         <v>162</v>
       </c>
       <c r="E69" s="1">
-        <v>1067.0</v>
+        <v>1067</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>163</v>
@@ -3050,18 +3291,21 @@
         <v>24</v>
       </c>
       <c r="I69" s="2">
-        <v>45359.0</v>
+        <v>45359</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="70">
+      <c r="K69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B70" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>42</v>
@@ -3070,7 +3314,7 @@
         <v>164</v>
       </c>
       <c r="E70" s="1">
-        <v>1068.0</v>
+        <v>1068</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>165</v>
@@ -3082,18 +3326,21 @@
         <v>28</v>
       </c>
       <c r="I70" s="2">
-        <v>45360.0</v>
+        <v>45360</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="71">
+      <c r="K70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B71" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>45</v>
@@ -3102,7 +3349,7 @@
         <v>166</v>
       </c>
       <c r="E71" s="1">
-        <v>1069.0</v>
+        <v>1069</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>167</v>
@@ -3114,18 +3361,21 @@
         <v>32</v>
       </c>
       <c r="I71" s="2">
-        <v>45361.0</v>
+        <v>45361</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="72">
+      <c r="K71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B72" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>11</v>
@@ -3134,7 +3384,7 @@
         <v>168</v>
       </c>
       <c r="E72" s="1">
-        <v>1070.0</v>
+        <v>1070</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>169</v>
@@ -3146,18 +3396,21 @@
         <v>15</v>
       </c>
       <c r="I72" s="2">
-        <v>45362.0</v>
+        <v>45362</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73">
+      <c r="K72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B73" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>17</v>
@@ -3166,7 +3419,7 @@
         <v>170</v>
       </c>
       <c r="E73" s="1">
-        <v>1071.0</v>
+        <v>1071</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>171</v>
@@ -3178,18 +3431,21 @@
         <v>20</v>
       </c>
       <c r="I73" s="2">
-        <v>45363.0</v>
+        <v>45363</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="74">
+      <c r="K73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B74" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>21</v>
@@ -3198,7 +3454,7 @@
         <v>172</v>
       </c>
       <c r="E74" s="1">
-        <v>1072.0</v>
+        <v>1072</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>173</v>
@@ -3210,18 +3466,21 @@
         <v>24</v>
       </c>
       <c r="I74" s="2">
-        <v>45364.0</v>
+        <v>45364</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="75">
+      <c r="K74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B75" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>25</v>
@@ -3230,7 +3489,7 @@
         <v>174</v>
       </c>
       <c r="E75" s="1">
-        <v>1073.0</v>
+        <v>1073</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>175</v>
@@ -3242,18 +3501,21 @@
         <v>28</v>
       </c>
       <c r="I75" s="2">
-        <v>45365.0</v>
+        <v>45365</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="76">
+      <c r="K75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B76" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>29</v>
@@ -3262,7 +3524,7 @@
         <v>176</v>
       </c>
       <c r="E76" s="1">
-        <v>1074.0</v>
+        <v>1074</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>177</v>
@@ -3274,18 +3536,21 @@
         <v>32</v>
       </c>
       <c r="I76" s="2">
-        <v>45366.0</v>
+        <v>45366</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77">
+      <c r="K76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B77" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>33</v>
@@ -3294,7 +3559,7 @@
         <v>178</v>
       </c>
       <c r="E77" s="1">
-        <v>1075.0</v>
+        <v>1075</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>179</v>
@@ -3306,18 +3571,21 @@
         <v>15</v>
       </c>
       <c r="I77" s="2">
-        <v>45367.0</v>
+        <v>45367</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="78">
+      <c r="K77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B78" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>36</v>
@@ -3326,7 +3594,7 @@
         <v>180</v>
       </c>
       <c r="E78" s="1">
-        <v>1076.0</v>
+        <v>1076</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>181</v>
@@ -3338,18 +3606,21 @@
         <v>20</v>
       </c>
       <c r="I78" s="2">
-        <v>45368.0</v>
+        <v>45368</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="79">
+      <c r="K78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B79" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>39</v>
@@ -3358,7 +3629,7 @@
         <v>182</v>
       </c>
       <c r="E79" s="1">
-        <v>1077.0</v>
+        <v>1077</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>183</v>
@@ -3370,18 +3641,21 @@
         <v>24</v>
       </c>
       <c r="I79" s="2">
-        <v>45369.0</v>
+        <v>45369</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="80">
+      <c r="K79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B80" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>42</v>
@@ -3390,7 +3664,7 @@
         <v>184</v>
       </c>
       <c r="E80" s="1">
-        <v>1078.0</v>
+        <v>1078</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>185</v>
@@ -3402,18 +3676,21 @@
         <v>28</v>
       </c>
       <c r="I80" s="2">
-        <v>45370.0</v>
+        <v>45370</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="81">
+      <c r="K80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B81" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>45</v>
@@ -3422,7 +3699,7 @@
         <v>186</v>
       </c>
       <c r="E81" s="1">
-        <v>1078.0</v>
+        <v>1078</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>187</v>
@@ -3434,13 +3711,17 @@
         <v>32</v>
       </c>
       <c r="I81" s="2">
-        <v>45371.0</v>
+        <v>45371</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>